--- a/第五章实验记录.xlsx
+++ b/第五章实验记录.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f2a61c2c14f0bcf0/大论文/code/BatteryGPT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="33" documentId="11_AD4DA82427541F7ACA7EB8AA780A36766AE8DE1E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{06C0CBA4-3C01-4BF2-9718-3AD568F1AEA5}"/>
+  <xr:revisionPtr revIDLastSave="37" documentId="11_AD4DA82427541F7ACA7EB8AA780A36766AE8DE1E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4D1B6E34-7655-47D8-913B-C6ADC335A83D}"/>
   <bookViews>
-    <workbookView xWindow="14715" yWindow="675" windowWidth="22755" windowHeight="19185" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15855" yWindow="795" windowWidth="22755" windowHeight="19185" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>文件时间</t>
   </si>
@@ -45,6 +45,14 @@
   </si>
   <si>
     <t>202403142139</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>202403151801</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>b1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -138,17 +146,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -165,6 +173,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -433,12 +445,12 @@
   <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.625" style="12" customWidth="1"/>
+    <col min="1" max="1" width="16.625" style="11" customWidth="1"/>
     <col min="2" max="2" width="12.625" style="5" customWidth="1"/>
     <col min="3" max="3" width="85.125" style="6" customWidth="1"/>
     <col min="4" max="16384" width="9" style="6"/>
@@ -456,7 +468,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -467,207 +479,211 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="11"/>
-      <c r="B3" s="4"/>
+      <c r="A3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="C3" s="8"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="11"/>
+      <c r="A4" s="10"/>
       <c r="B4" s="4"/>
       <c r="C4" s="8"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="11"/>
+      <c r="A5" s="10"/>
       <c r="B5" s="4"/>
       <c r="C5" s="8"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="11"/>
+      <c r="A6" s="10"/>
       <c r="B6" s="4"/>
       <c r="C6" s="8"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="11"/>
+      <c r="A7" s="10"/>
       <c r="B7" s="4"/>
       <c r="C7" s="8"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="11"/>
+      <c r="A8" s="10"/>
       <c r="B8" s="4"/>
       <c r="C8" s="8"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="11"/>
+      <c r="A9" s="10"/>
       <c r="B9" s="4"/>
       <c r="C9" s="8"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="11"/>
+      <c r="A11" s="10"/>
       <c r="B11" s="4"/>
       <c r="C11" s="8"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="11"/>
+      <c r="A12" s="10"/>
       <c r="B12" s="4"/>
       <c r="C12" s="8"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="11"/>
+      <c r="A13" s="10"/>
       <c r="B13" s="4"/>
       <c r="C13" s="8"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="11"/>
+      <c r="A14" s="10"/>
       <c r="B14" s="4"/>
       <c r="C14" s="8"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="11"/>
+      <c r="A15" s="10"/>
       <c r="B15" s="4"/>
       <c r="C15" s="8"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="11"/>
+      <c r="A16" s="10"/>
       <c r="B16" s="4"/>
       <c r="C16" s="8"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="11"/>
+      <c r="A17" s="10"/>
       <c r="B17" s="4"/>
       <c r="C17" s="8"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="11"/>
+      <c r="A18" s="10"/>
       <c r="B18" s="4"/>
       <c r="C18" s="8"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="11"/>
+      <c r="A19" s="10"/>
       <c r="B19" s="4"/>
       <c r="C19" s="8"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="11"/>
+      <c r="A20" s="10"/>
       <c r="B20" s="4"/>
       <c r="C20" s="8"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="11"/>
+      <c r="A21" s="10"/>
       <c r="B21" s="4"/>
       <c r="C21" s="8"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="11"/>
+      <c r="A22" s="10"/>
       <c r="B22" s="4"/>
       <c r="C22" s="8"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="11"/>
+      <c r="A23" s="10"/>
       <c r="B23" s="4"/>
       <c r="C23" s="8"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="11"/>
+      <c r="A24" s="10"/>
       <c r="B24" s="4"/>
       <c r="C24" s="8"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="11"/>
+      <c r="A25" s="10"/>
       <c r="B25" s="4"/>
       <c r="C25" s="8"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="11"/>
+      <c r="A26" s="10"/>
       <c r="B26" s="4"/>
       <c r="C26" s="8"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="11"/>
+      <c r="A27" s="10"/>
       <c r="B27" s="4"/>
       <c r="C27" s="8"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="11"/>
+      <c r="A28" s="10"/>
       <c r="B28" s="4"/>
       <c r="C28" s="8"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="11"/>
+      <c r="A29" s="10"/>
       <c r="B29" s="4"/>
       <c r="C29" s="8"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="11"/>
+      <c r="A30" s="10"/>
       <c r="B30" s="4"/>
       <c r="C30" s="8"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="11"/>
+      <c r="A31" s="10"/>
       <c r="B31" s="4"/>
       <c r="C31" s="8"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="11"/>
+      <c r="A32" s="10"/>
       <c r="B32" s="4"/>
       <c r="C32" s="8"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="11"/>
+      <c r="A33" s="10"/>
       <c r="B33" s="4"/>
       <c r="C33" s="8"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="11"/>
+      <c r="A34" s="10"/>
       <c r="B34" s="4"/>
       <c r="C34" s="8"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="11"/>
+      <c r="A35" s="10"/>
       <c r="B35" s="4"/>
       <c r="C35" s="8"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="11"/>
+      <c r="A36" s="10"/>
       <c r="B36" s="4"/>
       <c r="C36" s="8"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="11"/>
+      <c r="A37" s="10"/>
       <c r="B37" s="4"/>
       <c r="C37" s="8"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="11"/>
+      <c r="A38" s="10"/>
       <c r="B38" s="4"/>
       <c r="C38" s="8"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="11"/>
+      <c r="A39" s="10"/>
       <c r="B39" s="4"/>
       <c r="C39" s="8"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="11"/>
+      <c r="A40" s="10"/>
       <c r="B40" s="4"/>
       <c r="C40" s="8"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="11"/>
+      <c r="A41" s="10"/>
       <c r="B41" s="4"/>
       <c r="C41" s="8"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="11"/>
+      <c r="A42" s="10"/>
       <c r="B42" s="4"/>
       <c r="C42" s="8"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="11"/>
+      <c r="A43" s="10"/>
       <c r="B43" s="4"/>
       <c r="C43" s="8"/>
     </row>

--- a/第五章实验记录.xlsx
+++ b/第五章实验记录.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f2a61c2c14f0bcf0/大论文/code/BatteryGPT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="37" documentId="11_AD4DA82427541F7ACA7EB8AA780A36766AE8DE1E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4D1B6E34-7655-47D8-913B-C6ADC335A83D}"/>
+  <xr:revisionPtr revIDLastSave="46" documentId="11_AD4DA82427541F7ACA7EB8AA780A36766AE8DE1E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{676DDA58-4589-47FB-B55E-5D11FECCB9E5}"/>
   <bookViews>
-    <workbookView xWindow="15855" yWindow="795" windowWidth="22755" windowHeight="19185" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12285" yWindow="810" windowWidth="22755" windowHeight="19185" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>文件时间</t>
   </si>
@@ -53,6 +53,22 @@
   </si>
   <si>
     <t>b1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>b2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>202403161253</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>非掩码模型，非掩码数据，修改bug输出维度11-&gt;1，lr=0.01。其余同上</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>掩码模型，掩码数据，seq_len=24,label_len=12,pred_len=36。其余同上</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -445,7 +461,7 @@
   <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -479,18 +495,26 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="8"/>
+      <c r="C3" s="7" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="10"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="8"/>
+      <c r="A4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="10"/>

--- a/第五章实验记录.xlsx
+++ b/第五章实验记录.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f2a61c2c14f0bcf0/大论文/code/BatteryGPT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="46" documentId="11_AD4DA82427541F7ACA7EB8AA780A36766AE8DE1E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{676DDA58-4589-47FB-B55E-5D11FECCB9E5}"/>
+  <xr:revisionPtr revIDLastSave="60" documentId="11_AD4DA82427541F7ACA7EB8AA780A36766AE8DE1E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D8823739-4342-4282-B2D8-BAD0AE19E88A}"/>
   <bookViews>
-    <workbookView xWindow="12285" yWindow="810" windowWidth="22755" windowHeight="19185" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8850" yWindow="1695" windowWidth="20955" windowHeight="19185" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>文件时间</t>
   </si>
@@ -70,6 +70,29 @@
   <si>
     <t>掩码模型，掩码数据，seq_len=24,label_len=12,pred_len=36。其余同上</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>b3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>非掩码模型，掩码数据，sl=24,ll=12,pl=48，关闭数据归一化。其余同上。效果不行</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>202403171514</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>b4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭数据归一化，mmse损失。其余同b1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>202403181159</t>
   </si>
 </sst>
 </file>
@@ -461,7 +484,7 @@
   <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A10" sqref="A10:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -517,14 +540,26 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="10"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="8"/>
+      <c r="A5" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="10"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="8"/>
+      <c r="A6" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="10"/>

--- a/第五章实验记录.xlsx
+++ b/第五章实验记录.xlsx
@@ -1,24 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f2a61c2c14f0bcf0/大论文/code/BatteryGPT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="60" documentId="11_AD4DA82427541F7ACA7EB8AA780A36766AE8DE1E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D8823739-4342-4282-B2D8-BAD0AE19E88A}"/>
+  <xr:revisionPtr revIDLastSave="75" documentId="11_AD4DA82427541F7ACA7EB8AA780A36766AE8DE1E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{257CB7C2-75C7-4ACE-AD4D-7649859CA20D}"/>
   <bookViews>
-    <workbookView xWindow="8850" yWindow="1695" windowWidth="20955" windowHeight="19185" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="855" yWindow="825" windowWidth="20955" windowHeight="19185" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -68,10 +79,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>掩码模型，掩码数据，seq_len=24,label_len=12,pred_len=36。其余同上</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>b3</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -93,6 +100,10 @@
   </si>
   <si>
     <t>202403181159</t>
+  </si>
+  <si>
+    <t>掩码模型，掩码数据，seq_len=24,label_len=12,pred_len=36。其余同上。BUG：输入数据的结构有问题，可以看temp1中的结果，掩码的问题。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -484,7 +495,7 @@
   <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:C10"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -528,7 +539,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>9</v>
       </c>
@@ -536,29 +547,29 @@
         <v>8</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -609,52 +620,42 @@
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="10"/>
       <c r="B16" s="4"/>
-      <c r="C16" s="8"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="10"/>
       <c r="B17" s="4"/>
-      <c r="C17" s="8"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="10"/>
       <c r="B18" s="4"/>
-      <c r="C18" s="8"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="10"/>
       <c r="B19" s="4"/>
-      <c r="C19" s="8"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="10"/>
       <c r="B20" s="4"/>
-      <c r="C20" s="8"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="10"/>
       <c r="B21" s="4"/>
-      <c r="C21" s="8"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>
       <c r="B22" s="4"/>
-      <c r="C22" s="8"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="10"/>
       <c r="B23" s="4"/>
-      <c r="C23" s="8"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="10"/>
       <c r="B24" s="4"/>
-      <c r="C24" s="8"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="10"/>
       <c r="B25" s="4"/>
-      <c r="C25" s="8"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="10"/>
